--- a/biology/Médecine/Ján_Jesenský/Ján_Jesenský.xlsx
+++ b/biology/Médecine/Ján_Jesenský/Ján_Jesenský.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>J%C3%A1n_Jesensk%C3%BD</t>
+          <t>Ján_Jesenský</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ján Jesenský ou Jessenius de Jessen[1] (né en 1566 à Wrocław et décédé le 21 juin 1621 à Prague), dont le nom latinisé est Iohannes Iessenius, est un médecin, politicien et philosophe slovaque.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ján Jesenský ou Jessenius de Jessen (né en 1566 à Wrocław et décédé le 21 juin 1621 à Prague), dont le nom latinisé est Iohannes Iessenius, est un médecin, politicien et philosophe slovaque.
 Médecin personnel de Rodolphe II puis de son frère Matthias Ier, il est surtout connu comme l'introducteur des études anatomiques en Europe centrale. Impliqué dans les conflits politiques et religieux de son époque, il connait une fin particulièrement tragique et cruelle.
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>J%C3%A1n_Jesensk%C3%BD</t>
+          <t>Ján_Jesenský</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,16 +524,18 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fils d'une famille aisée, il étudie dans plusieurs universités européennes : l'Université de Wittemberg à partir de 1583, puis l'Université de Leipzig en 1585 et enfin l'Université de Padoue en 1588 où il devient docteur en médecine[2]. En Italie, il est influencé par ses maîtres Francesco Piccolomini (1523-1607) et d'Acquapendente (1533-1619)[3].
-Il est recteur de l'Université de Wittemberg en 1597, puis de l'Université de Prague en 1601[1].
-Ami de l'astronome Tycho Brahe, c'est grâce à ce dernier qu'il devient le médecin de l'empereur Rodolphe II. Bien que Matthias Ier ait intrigué pour prendre la place de son frère, il conserve Ján Jesenský comme médecin[2].
-Sur le plan philosophique et politique, il fait partie d'une fraction protestante de Bohème[4], plutôt progressiste pour l'époque, opposée à l'autorité de l'Église et à la monarchie de Habsbourg. En 1590, à l'âge de 25 ans, il avait déjà publié un discours contre la tyrannie en déclarant : « De même qu'il  n'y a pas lieu d'accorder à un médecin le droit de tuer impunément, on ne peut accorder à un tyran celui de ruiner l'État, mais il faut s'en saisir comme d'un fou furieux et le maîtriser »[5].
-Aussi, lorsque Ferdinand II fait de la Bohème, terre utraquiste de langue slovaque, un pays catholique de langue allemande[5], il se rebelle avec d'autres nobles pour participer à la seconde défenestration de Prague en 1618[2].
-Après la défaite de la Bohême sur la Ligue catholique lors de la Bataille de la Montagne Blanche le 8 novembre 1620[2], il est arrêté et accusé de félonie[1].
-Avec 27 autres nobles, il est exécuté le 21 juin 1621 à Prague d'une manière particulièrement cruelle : on lui arrache la langue, son corps est découpé en pièces pour être empalées sur les herses de la ville. Sa tête et celles de ses compagnons sont exposées sur la Tour du pont Charles (cs) pendant dix ans, avant d'être inhumées dans l'église de Notre-Dame du Týn [2],[6].
-Ces exécutions suscitèrent une vive émotion dans toute l'Europe, attisant le début de la guerre de Trente Ans. De nombreux pamphlets furent publiés par solidarité et compassion pour Jessenius et ses compagnons, et l'on fut d'avis qu'il valait mieux, pour un médecin, de ne pas se mêler de politique[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fils d'une famille aisée, il étudie dans plusieurs universités européennes : l'Université de Wittemberg à partir de 1583, puis l'Université de Leipzig en 1585 et enfin l'Université de Padoue en 1588 où il devient docteur en médecine. En Italie, il est influencé par ses maîtres Francesco Piccolomini (1523-1607) et d'Acquapendente (1533-1619).
+Il est recteur de l'Université de Wittemberg en 1597, puis de l'Université de Prague en 1601.
+Ami de l'astronome Tycho Brahe, c'est grâce à ce dernier qu'il devient le médecin de l'empereur Rodolphe II. Bien que Matthias Ier ait intrigué pour prendre la place de son frère, il conserve Ján Jesenský comme médecin.
+Sur le plan philosophique et politique, il fait partie d'une fraction protestante de Bohème, plutôt progressiste pour l'époque, opposée à l'autorité de l'Église et à la monarchie de Habsbourg. En 1590, à l'âge de 25 ans, il avait déjà publié un discours contre la tyrannie en déclarant : « De même qu'il  n'y a pas lieu d'accorder à un médecin le droit de tuer impunément, on ne peut accorder à un tyran celui de ruiner l'État, mais il faut s'en saisir comme d'un fou furieux et le maîtriser ».
+Aussi, lorsque Ferdinand II fait de la Bohème, terre utraquiste de langue slovaque, un pays catholique de langue allemande, il se rebelle avec d'autres nobles pour participer à la seconde défenestration de Prague en 1618.
+Après la défaite de la Bohême sur la Ligue catholique lors de la Bataille de la Montagne Blanche le 8 novembre 1620, il est arrêté et accusé de félonie.
+Avec 27 autres nobles, il est exécuté le 21 juin 1621 à Prague d'une manière particulièrement cruelle : on lui arrache la langue, son corps est découpé en pièces pour être empalées sur les herses de la ville. Sa tête et celles de ses compagnons sont exposées sur la Tour du pont Charles (cs) pendant dix ans, avant d'être inhumées dans l'église de Notre-Dame du Týn ,.
+Ces exécutions suscitèrent une vive émotion dans toute l'Europe, attisant le début de la guerre de Trente Ans. De nombreux pamphlets furent publiés par solidarité et compassion pour Jessenius et ses compagnons, et l'on fut d'avis qu'il valait mieux, pour un médecin, de ne pas se mêler de politique.
 </t>
         </is>
       </c>
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>J%C3%A1n_Jesensk%C3%BD</t>
+          <t>Ján_Jesenský</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,11 +564,13 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Connu comme anatomiste, il n'est pas un pionnier dans ce domaine, mais il est considéré comme le principal promoteur de la médecine académique de la Renaissance tardive en Europe centrale[3].
-Sa principale contribution est d'avoir publié en 1600, la réalisation de la première dissection humaine publique à Prague[7]. Il justifie cette recherche anatomique par trois principes : le « connais-toi toi-même » (le corps comme instrument de l'âme), la téléologie inspirée de celle de Vésale (l'anatomie humaine comme le résultat d'une volonté ou sagesse divine), et la tradition humaniste de la Renaissance (la dignité de l'Homme) [3].
-Il écrit nombre de livres de médecine, notamment sur le rôle de la langue dans la prononciation, mais également en chirurgie et sur les maladies contagieuse comme la peste qui sévit à l'époque[2],[4]. En toxicologie, il discute des effets de quelques poisons et de leurs traitements, comme l'euphorbe, l'hellébore, l'arsenic, l'opium, le dioxyde de plomb et l'hydroxyde de calcium[6]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Connu comme anatomiste, il n'est pas un pionnier dans ce domaine, mais il est considéré comme le principal promoteur de la médecine académique de la Renaissance tardive en Europe centrale.
+Sa principale contribution est d'avoir publié en 1600, la réalisation de la première dissection humaine publique à Prague. Il justifie cette recherche anatomique par trois principes : le « connais-toi toi-même » (le corps comme instrument de l'âme), la téléologie inspirée de celle de Vésale (l'anatomie humaine comme le résultat d'une volonté ou sagesse divine), et la tradition humaniste de la Renaissance (la dignité de l'Homme) .
+Il écrit nombre de livres de médecine, notamment sur le rôle de la langue dans la prononciation, mais également en chirurgie et sur les maladies contagieuse comme la peste qui sévit à l'époque,. En toxicologie, il discute des effets de quelques poisons et de leurs traitements, comme l'euphorbe, l'hellébore, l'arsenic, l'opium, le dioxyde de plomb et l'hydroxyde de calcium. 
 </t>
         </is>
       </c>
@@ -565,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>J%C3%A1n_Jesensk%C3%BD</t>
+          <t>Ján_Jesenský</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,7 +599,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>De mithridatio et theriaca, Disputatio Wittenberg (Stephanus Marcellus Austrius) 1598; réimpression Gießen 1614.
 Anatomiae, Pragae anno 1600 abs se solenniter administratae historia. Wite[n]bergae 1601.
